--- a/mic_positions/data/miscellaneous_positions.xlsx
+++ b/mic_positions/data/miscellaneous_positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulbr\OneDrive\Documents\01 Uni OneDrive\13 WiSe 2425\02 MAP Microphone Array Project\Bassoon Project\02 Code\Bassoon2425\mic_positions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F680639-46D6-4A75-9E1D-28ABE532DA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D9A488-DFC6-4C8A-A05E-476D29B1EEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>B3</t>
   </si>
@@ -77,6 +77,48 @@
   </si>
   <si>
     <t>A7</t>
+  </si>
+  <si>
+    <t>bluetooth_speaker</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>B1</t>
   </si>
 </sst>
 </file>
@@ -442,7 +484,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -511,13 +553,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>0.48399999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -525,13 +567,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>0.56000000000000005</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -539,13 +581,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.49299999999999999</v>
+        <v>1.115</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -553,13 +595,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0.82599999999999996</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -567,13 +609,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>0.83699999999999997</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -581,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>1.49</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -595,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>0.47</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -609,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>0.83499999999999996</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -623,74 +665,257 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>0.92600000000000005</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.82599999999999996</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0.83699999999999997</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>1.883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>1.8660000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>1.988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>1.3440000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>1.823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>1.3340000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>1.3169999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>1.3340000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>1.5629999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
